--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Сайт\foodtrade-bz.github.io\assets\price\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -548,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,7 +564,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1100</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>1200</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>620</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>2500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>550</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>640</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>600</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>550</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>1450</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>280</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>110</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>400</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="C30">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="C33">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Сайт\foodtrade-bz.github.io\assets\price\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Food Trade\Сайт\foodtrade-bz.github.io\assets\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>4000</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Food Trade\Сайт\foodtrade-bz.github.io\assets\price\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Сайт\foodtrade-bz.github.io\assets\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>2990</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>3000</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Сайт\foodtrade-bz.github.io\assets\price\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Food Trade\Сайт\foodtrade-bz.github.io\assets\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>650</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>760</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>590</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>1450</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>532</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Прайс" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>570</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>740</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>870</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>2990</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1060</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>1400</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>230</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>210</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>270</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="C30">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>25</v>
       </c>
       <c r="C32">
-        <v>230</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="C33">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>566</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>773</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>885</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>392</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>1456</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>302</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>392</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>543</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/price/price_src.xlsx
+++ b/assets/price/price_src.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
